--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3355.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3355.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.212661953270226</v>
+        <v>0.9487097263336182</v>
       </c>
       <c r="B1">
-        <v>2.665775138163323</v>
+        <v>3.672916173934937</v>
       </c>
       <c r="C1">
-        <v>6.339257291297139</v>
+        <v>2.938079595565796</v>
       </c>
       <c r="D1">
-        <v>2.178231871912498</v>
+        <v>2.541958093643188</v>
       </c>
       <c r="E1">
-        <v>1.17190946897578</v>
+        <v>2.068214654922485</v>
       </c>
     </row>
   </sheetData>
